--- a/EC/Train Runs and Enforcements 2016-05-21.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-21.xlsx
@@ -10,6 +10,7 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="623">
   <si>
     <t>Train ID</t>
   </si>
@@ -1896,6 +1897,33 @@
   </si>
   <si>
     <t>61st 2N was STOP (routing/dispatch)</t>
+  </si>
+  <si>
+    <t>168-21</t>
+  </si>
+  <si>
+    <t>170-21</t>
+  </si>
+  <si>
+    <t>174-21</t>
+  </si>
+  <si>
+    <t>175-21</t>
+  </si>
+  <si>
+    <t>176-21</t>
+  </si>
+  <si>
+    <t>177-21</t>
+  </si>
+  <si>
+    <t>181-21</t>
+  </si>
+  <si>
+    <t>183-21</t>
+  </si>
+  <si>
+    <t>Offered, not chosen</t>
   </si>
 </sst>
 </file>
@@ -2775,8 +2803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V72" sqref="V72"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15573,6 +15604,9 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18535,6 +18569,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18549,40 +18586,76 @@
       <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="79" t="s">
+        <v>617</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="79" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="79" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="79" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="79" t="s">
+        <v>579</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="79" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
@@ -18612,6 +18685,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24437,6 +24511,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/EC/Train Runs and Enforcements 2016-05-21.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-21.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2806,9 +2805,6 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V72" sqref="V72"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:P1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15604,9 +15600,6 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:M1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18569,9 +18562,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18685,7 +18675,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24511,7 +24500,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/EC/Train Runs and Enforcements 2016-05-21.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-21.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="622">
   <si>
     <t>Train ID</t>
   </si>
@@ -1874,12 +1874,6 @@
     <t>Ran in ATC to get past Form C</t>
   </si>
   <si>
-    <t>Discuss</t>
-  </si>
-  <si>
-    <t>Went to 38th and came back to DUS. Rescue train?</t>
-  </si>
-  <si>
     <t>Didn't try initializing at DUS. First init attempt was at 38th</t>
   </si>
   <si>
@@ -1923,6 +1917,9 @@
   </si>
   <si>
     <t>Offered, not chosen</t>
+  </si>
+  <si>
+    <t>Power outage on East Corridor</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2434,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2802,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V72" sqref="V72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L13" s="61" t="str">
@@ -3879,13 +3897,13 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="18"/>
+        <f>I13-F13</f>
         <v>1.0763888931251131E-3</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M13:$M13)</f>
         <v>1.5500000061001629</v>
       </c>
       <c r="Q13" s="62" t="s">
@@ -3895,27 +3913,27 @@
         <v>599</v>
       </c>
       <c r="T13" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 04:57:35-0600',mode:absolute,to:'2016-05-21 05:03:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y13&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V13" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
         <v>1</v>
       </c>
       <c r="W13" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="X13" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
         <v>9.7799999999999998E-2</v>
       </c>
       <c r="Y13" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X13-W13)</f>
         <v>2.3499999999999993E-2</v>
       </c>
       <c r="Z13" s="75" t="e">
@@ -3959,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L14" s="61" t="str">
@@ -3967,11 +3985,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="18"/>
+        <f>I14-F14</f>
         <v>2.9224537036498077E-2</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M14:$M14)</f>
         <v>42.083333332557231</v>
       </c>
       <c r="O14" s="13"/>
@@ -3979,27 +3997,27 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="T14" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 05:54:08-0600',mode:absolute,to:'2016-05-21 06:40:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y14&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V14" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
         <v>1</v>
       </c>
       <c r="W14" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="X14" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
         <v>0.18779999999999999</v>
       </c>
       <c r="Y14" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X14-W14)</f>
         <v>23.112200000000001</v>
       </c>
       <c r="Z14" s="75" t="e">
@@ -4043,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L15" s="61" t="str">
@@ -4051,11 +4069,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="18"/>
+        <f>I15-F15</f>
         <v>4.0474537032423541E-2</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M15:$M15)</f>
         <v>58.283333326689899</v>
       </c>
       <c r="O15" s="13"/>
@@ -4063,27 +4081,27 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="T15" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 05:02:29-0600',mode:absolute,to:'2016-05-21 06:05:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y15&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V15" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
         <v>1</v>
       </c>
       <c r="W15" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X15" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y15" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X15-W15)</f>
         <v>23.285899999999998</v>
       </c>
       <c r="Z15" s="75" t="e">
@@ -4127,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L16" s="61" t="str">
@@ -4135,11 +4153,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="18"/>
+        <f>I16-F16</f>
         <v>3.2361111108912155E-2</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M16:$M16)</f>
         <v>46.599999996833503</v>
       </c>
       <c r="O16" s="13"/>
@@ -4147,27 +4165,27 @@
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="T16" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:07:30-0600',mode:absolute,to:'2016-05-21 06:57:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y16&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V16" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
         <v>1</v>
       </c>
       <c r="W16" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X16" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y16" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X16-W16)</f>
         <v>23.282400000000003</v>
       </c>
       <c r="Z16" s="75" t="e">
@@ -4211,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L17" s="61" t="str">
@@ -4219,13 +4237,13 @@
         <v>YANAI</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="18"/>
+        <f>I17-F17</f>
         <v>2.5474537033005618E-2</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M17:$M17)</f>
         <v>36.683333327528089</v>
       </c>
       <c r="Q17" s="62" t="s">
@@ -4235,27 +4253,27 @@
         <v>600</v>
       </c>
       <c r="T17" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 05:41:31-0600',mode:absolute,to:'2016-05-21 06:21:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y17&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V17" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
         <v>1</v>
       </c>
       <c r="W17" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
         <v>1.9118999999999999</v>
       </c>
       <c r="X17" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
         <v>23.3066</v>
       </c>
       <c r="Y17" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X17-W17)</f>
         <v>21.3947</v>
       </c>
       <c r="Z17" s="75" t="e">
@@ -4299,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L18" s="61" t="str">
@@ -4307,11 +4325,11 @@
         <v>YANAI</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="18"/>
+        <f>I18-F18</f>
         <v>2.9421296298096422E-2</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M18:$M18)</f>
         <v>42.366666669258848</v>
       </c>
       <c r="O18" s="13"/>
@@ -4319,27 +4337,27 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="T18" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:22:12-0600',mode:absolute,to:'2016-05-21 07:07:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y18&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V18" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
         <v>1</v>
       </c>
       <c r="W18" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
         <v>23.290199999999999</v>
       </c>
       <c r="X18" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y18" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X18-W18)</f>
         <v>23.2759</v>
       </c>
       <c r="Z18" s="75" t="e">
@@ -4383,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L19" s="61" t="str">
@@ -4391,11 +4409,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="18"/>
+        <f>I19-F19</f>
         <v>3.2395833331975155E-2</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M19:$M19)</f>
         <v>46.649999998044223</v>
       </c>
       <c r="O19" s="13"/>
@@ -4403,27 +4421,27 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="T19" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 05:35:45-0600',mode:absolute,to:'2016-05-21 06:26:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y19&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V19" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
         <v>1</v>
       </c>
       <c r="W19" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X19" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
         <v>23.322800000000001</v>
       </c>
       <c r="Y19" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X19-W19)</f>
         <v>23.2744</v>
       </c>
       <c r="Z19" s="75" t="e">
@@ -4467,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L20" s="61" t="str">
@@ -4475,11 +4493,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="18"/>
+        <f>I20-F20</f>
         <v>4.2928240742185153E-2</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M20:$M20)</f>
         <v>61.81666666874662</v>
       </c>
       <c r="O20" s="13"/>
@@ -4487,27 +4505,27 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="T20" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:30:49-0600',mode:absolute,to:'2016-05-21 07:36:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y20&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V20" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
         <v>1</v>
       </c>
       <c r="W20" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
         <v>23.29</v>
       </c>
       <c r="X20" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="Y20" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X20-W20)</f>
         <v>23.271899999999999</v>
       </c>
       <c r="Z20" s="75" t="e">
@@ -4551,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L21" s="61" t="str">
@@ -4559,11 +4577,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="18"/>
+        <f>I21-F21</f>
         <v>2.902777778217569E-2</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M21:$M21)</f>
         <v>41.800000006332994</v>
       </c>
       <c r="O21" s="13"/>
@@ -4571,27 +4589,27 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="T21" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:03:01-0600',mode:absolute,to:'2016-05-21 06:47:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y21&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V21" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
         <v>1</v>
       </c>
       <c r="W21" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="X21" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y21" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X21-W21)</f>
         <v>23.2485</v>
       </c>
       <c r="Z21" s="75">
@@ -4635,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L22" s="61" t="str">
@@ -4643,11 +4661,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="18"/>
+        <f>I22-F22</f>
         <v>3.3692129625706002E-2</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M22:$M22)</f>
         <v>48.516666661016643</v>
       </c>
       <c r="O22" s="13"/>
@@ -4655,27 +4673,27 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="T22" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:52:02-0600',mode:absolute,to:'2016-05-21 07:43:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y22&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V22" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
         <v>1</v>
       </c>
       <c r="W22" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X22" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y22" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X22-W22)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z22" s="75" t="e">
@@ -4719,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L23" s="61" t="str">
@@ -4727,11 +4745,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="18"/>
+        <f>I23-F23</f>
         <v>3.2395833339251112E-2</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M23:$M23)</f>
         <v>46.650000008521602</v>
       </c>
       <c r="O23" s="13"/>
@@ -4739,27 +4757,27 @@
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
       <c r="T23" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:12:21-0600',mode:absolute,to:'2016-05-21 07:02:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y23&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V23" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
         <v>1</v>
       </c>
       <c r="W23" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X23" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H23,LEN(H23)-4)/10000</f>
         <v>23.328800000000001</v>
       </c>
       <c r="Y23" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X23-W23)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z23" s="75" t="e">
@@ -4803,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L24" s="61" t="str">
@@ -4811,11 +4829,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="18"/>
+        <f>I24-F24</f>
         <v>3.1585648146574385E-2</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M24:$M24)</f>
         <v>45.483333331067115</v>
       </c>
       <c r="O24" s="13"/>
@@ -4823,27 +4841,27 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="T24" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:06:29-0600',mode:absolute,to:'2016-05-21 07:55:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y24&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V24" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
         <v>1</v>
       </c>
       <c r="W24" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X24" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y24" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X24-W24)</f>
         <v>23.282499999999999</v>
       </c>
       <c r="Z24" s="75" t="e">
@@ -4887,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L25" s="61" t="str">
@@ -4895,11 +4913,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="18"/>
+        <f>I25-F25</f>
         <v>2.7604166665696539E-2</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M25:$M25)</f>
         <v>39.749999998603016</v>
       </c>
       <c r="O25" s="13"/>
@@ -4907,27 +4925,27 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
       <c r="T25" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:25:09-0600',mode:absolute,to:'2016-05-21 07:08:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y25&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V25" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
         <v>1</v>
       </c>
       <c r="W25" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
         <v>0.125</v>
       </c>
       <c r="X25" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y25" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X25-W25)</f>
         <v>23.205400000000001</v>
       </c>
       <c r="Z25" s="75">
@@ -4971,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L26" s="61" t="str">
@@ -4979,11 +4997,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="18"/>
+        <f>I26-F26</f>
         <v>3.0659722222480923E-2</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M26:$M26)</f>
         <v>44.150000000372529</v>
       </c>
       <c r="O26" s="13"/>
@@ -4991,27 +5009,27 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="T26" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:20:24-0600',mode:absolute,to:'2016-05-21 08:08:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y26&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V26" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
         <v>1</v>
       </c>
       <c r="W26" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
         <v>23.297599999999999</v>
       </c>
       <c r="X26" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y26" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X26-W26)</f>
         <v>23.282599999999999</v>
       </c>
       <c r="Z26" s="75" t="e">
@@ -5055,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L27" s="61" t="str">
@@ -5063,11 +5081,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="18"/>
+        <f>I27-F27</f>
         <v>3.1701388885267079E-2</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M27:$M27)</f>
         <v>45.649999994784594</v>
       </c>
       <c r="O27" s="13"/>
@@ -5075,27 +5093,27 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="T27" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:43:23-0600',mode:absolute,to:'2016-05-21 07:33:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y27&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V27" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
         <v>1</v>
       </c>
       <c r="W27" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="X27" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
         <v>23.324100000000001</v>
       </c>
       <c r="Y27" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X27-W27)</f>
         <v>23.2744</v>
       </c>
       <c r="Z27" s="75">
@@ -5139,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L28" s="61" t="str">
@@ -5147,11 +5165,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="18"/>
+        <f>I28-F28</f>
         <v>3.3032407409336884E-2</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M28:$M28)</f>
         <v>47.566666669445112</v>
       </c>
       <c r="O28" s="13"/>
@@ -5159,27 +5177,27 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="T28" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:35:41-0600',mode:absolute,to:'2016-05-21 08:26:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y28&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V28" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
         <v>1</v>
       </c>
       <c r="W28" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
         <v>23.2927</v>
       </c>
       <c r="X28" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y28" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X28-W28)</f>
         <v>23.275300000000001</v>
       </c>
       <c r="Z28" s="75" t="e">
@@ -5223,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L29" s="61" t="str">
@@ -5231,11 +5249,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="18"/>
+        <f>I29-F29</f>
         <v>2.8321759258687962E-2</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M29:$M29)</f>
         <v>40.783333332510665</v>
       </c>
       <c r="O29" s="13"/>
@@ -5243,27 +5261,27 @@
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="T29" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 06:57:16-0600',mode:absolute,to:'2016-05-21 07:41:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y29&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V29" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
         <v>1</v>
       </c>
       <c r="W29" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X29" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y29" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X29-W29)</f>
         <v>23.284199999999998</v>
       </c>
       <c r="Z29" s="75" t="e">
@@ -5307,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L30" s="61" t="str">
@@ -5315,11 +5333,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="18"/>
+        <f>I30-F30</f>
         <v>2.8217592589498963E-2</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M30:$M30)</f>
         <v>40.633333328878507</v>
       </c>
       <c r="O30" s="13"/>
@@ -5327,27 +5345,27 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="T30" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:52:35-0600',mode:absolute,to:'2016-05-21 08:36:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y30&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V30" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
         <v>1</v>
       </c>
       <c r="W30" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
         <v>23.298100000000002</v>
       </c>
       <c r="X30" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="Y30" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X30-W30)</f>
         <v>23.265600000000003</v>
       </c>
       <c r="Z30" s="75">
@@ -5391,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L31" s="61" t="str">
@@ -5399,11 +5417,11 @@
         <v>YANAI</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="18"/>
+        <f>I31-F31</f>
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M31:$M31)</f>
         <v>36.033333332743496</v>
       </c>
       <c r="O31" s="13"/>
@@ -5411,27 +5429,27 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="T31" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:12:17-0600',mode:absolute,to:'2016-05-21 07:54:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y31&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V31" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
         <v>1</v>
       </c>
       <c r="W31" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X31" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
         <v>23.330300000000001</v>
       </c>
       <c r="Y31" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X31-W31)</f>
         <v>23.2836</v>
       </c>
       <c r="Z31" s="75" t="e">
@@ -5475,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L32" s="61" t="str">
@@ -5483,11 +5501,11 @@
         <v>YANAI</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="18"/>
+        <f>I32-F32</f>
         <v>3.0069444444961846E-2</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M32:$M32)</f>
         <v>43.300000000745058</v>
       </c>
       <c r="O32" s="13"/>
@@ -5495,27 +5513,27 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="T32" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:05:55-0600',mode:absolute,to:'2016-05-21 08:52:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y32&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V32" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
         <v>1</v>
       </c>
       <c r="W32" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X32" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
         <v>1.6E-2</v>
       </c>
       <c r="Y32" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X32-W32)</f>
         <v>23.282200000000003</v>
       </c>
       <c r="Z32" s="75" t="e">
@@ -5559,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L33" s="61" t="str">
@@ -5567,13 +5585,13 @@
         <v>COCA</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="18"/>
+        <f>I33-F33</f>
         <v>2.6145833333430346E-2</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M33:$M33)</f>
         <v>37.650000000139698</v>
       </c>
       <c r="Q33" s="62" t="s">
@@ -5583,27 +5601,27 @@
         <v>601</v>
       </c>
       <c r="T33" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:37:49-0600',mode:absolute,to:'2016-05-21 08:18:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y33&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V33" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
         <v>1</v>
       </c>
       <c r="W33" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
         <v>1.9137</v>
       </c>
       <c r="X33" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
         <v>23.3308</v>
       </c>
       <c r="Y33" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X33-W33)</f>
         <v>21.417100000000001</v>
       </c>
       <c r="Z33" s="75" t="e">
@@ -5647,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L34" s="61" t="str">
@@ -5655,11 +5673,11 @@
         <v>COCA</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="18"/>
+        <f>I34-F34</f>
         <v>3.1759259261889383E-2</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M34:$M34)</f>
         <v>45.733333337120712</v>
       </c>
       <c r="O34" s="13"/>
@@ -5667,27 +5685,27 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="T34" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:19:52-0600',mode:absolute,to:'2016-05-21 09:09:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y34&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V34" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
         <v>1</v>
       </c>
       <c r="W34" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X34" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y34" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X34-W34)</f>
         <v>23.2852</v>
       </c>
       <c r="Z34" s="75" t="e">
@@ -5731,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L35" s="61" t="str">
@@ -5739,13 +5757,13 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="18"/>
+        <f>I35-F35</f>
         <v>7.3148148148902692E-3</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M35:$M35)</f>
         <v>10.533333333441988</v>
       </c>
       <c r="Q35" s="62" t="s">
@@ -5755,27 +5773,27 @@
         <v>599</v>
       </c>
       <c r="T35" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:43:20-0600',mode:absolute,to:'2016-05-21 07:58:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y35&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V35" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
         <v>1</v>
       </c>
       <c r="W35" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
         <v>0.1464</v>
       </c>
       <c r="X35" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
         <v>5.1824000000000003</v>
       </c>
       <c r="Y35" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X35-W35)</f>
         <v>5.0360000000000005</v>
       </c>
       <c r="Z35" s="75" t="e">
@@ -5819,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L36" s="61" t="str">
@@ -5827,11 +5845,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="18"/>
+        <f>I36-F36</f>
         <v>2.8622685189475305E-2</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M36:$M36)</f>
         <v>41.21666667284444</v>
       </c>
       <c r="O36" s="13"/>
@@ -5839,27 +5857,27 @@
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
       <c r="T36" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:35:52-0600',mode:absolute,to:'2016-05-21 09:20:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y36&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V36" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
         <v>1</v>
       </c>
       <c r="W36" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
         <v>23.298999999999999</v>
       </c>
       <c r="X36" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="Y36" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X36-W36)</f>
         <v>23.207699999999999</v>
       </c>
       <c r="Z36" s="75" t="e">
@@ -5903,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L37" s="61" t="str">
@@ -5911,11 +5929,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="18"/>
+        <f>I37-F37</f>
         <v>2.9351851851970423E-2</v>
       </c>
       <c r="N37" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M37:$M37)</f>
         <v>42.266666666837409</v>
       </c>
       <c r="O37" s="13"/>
@@ -5923,27 +5941,27 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
       <c r="T37" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 07:55:44-0600',mode:absolute,to:'2016-05-21 08:41:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y37&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V37" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
         <v>1</v>
       </c>
       <c r="W37" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X37" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
         <v>23.331700000000001</v>
       </c>
       <c r="Y37" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X37-W37)</f>
         <v>23.285900000000002</v>
       </c>
       <c r="Z37" s="75">
@@ -5987,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L38" s="61" t="str">
@@ -5995,11 +6013,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="18"/>
+        <f>I38-F38</f>
         <v>2.9861111113859806E-2</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M38:$M38)</f>
         <v>43.000000003958121</v>
       </c>
       <c r="O38" s="13"/>
@@ -6007,27 +6025,27 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="T38" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:48:53-0600',mode:absolute,to:'2016-05-21 09:35:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y38&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V38" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
         <v>1</v>
       </c>
       <c r="W38" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
         <v>23.3002</v>
       </c>
       <c r="X38" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y38" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X38-W38)</f>
         <v>23.285499999999999</v>
       </c>
       <c r="Z38" s="75" t="e">
@@ -6071,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L39" s="61" t="str">
@@ -6079,11 +6097,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="18"/>
+        <f>I39-F39</f>
         <v>2.5821759263635613E-2</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M39:$M39)</f>
         <v>37.183333339635283</v>
       </c>
       <c r="O39" s="13"/>
@@ -6091,27 +6109,27 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="T39" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:10:59-0600',mode:absolute,to:'2016-05-21 08:51:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y39&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V39" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
         <v>1</v>
       </c>
       <c r="W39" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X39" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y39" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X39-W39)</f>
         <v>23.284800000000001</v>
       </c>
       <c r="Z39" s="75" t="e">
@@ -6155,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L40" s="61" t="str">
@@ -6163,13 +6181,13 @@
         <v>ROCHA</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="18"/>
+        <f>I40-F40</f>
         <v>4.6296292566694319E-5</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M40:$M40)</f>
         <v>6.666666129603982E-2</v>
       </c>
       <c r="Q40" s="62" t="s">
@@ -6179,27 +6197,27 @@
         <v>599</v>
       </c>
       <c r="T40" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:08:55-0600',mode:absolute,to:'2016-05-21 09:13:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y40&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V40" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
         <v>1</v>
       </c>
       <c r="W40" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
         <v>23.104199999999999</v>
       </c>
       <c r="X40" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
         <v>23.087199999999999</v>
       </c>
       <c r="Y40" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X40-W40)</f>
         <v>1.699999999999946E-2</v>
       </c>
       <c r="Z40" s="75">
@@ -6243,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L41" s="61" t="str">
@@ -6251,11 +6269,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="18"/>
+        <f>I41-F41</f>
         <v>2.5798611110076308E-2</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M41:$M41)</f>
         <v>37.149999998509884</v>
       </c>
       <c r="O41" s="13"/>
@@ -6263,27 +6281,27 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="T41" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:28:44-0600',mode:absolute,to:'2016-05-21 09:09:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y41&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V41" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
         <v>1</v>
       </c>
       <c r="W41" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X41" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
         <v>23.3306</v>
       </c>
       <c r="Y41" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X41-W41)</f>
         <v>23.284200000000002</v>
       </c>
       <c r="Z41" s="75" t="e">
@@ -6327,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L42" s="61" t="str">
@@ -6335,11 +6353,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="18"/>
+        <f>I42-F42</f>
         <v>2.9895833329646848E-2</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M42:$M42)</f>
         <v>43.049999994691461</v>
       </c>
       <c r="O42" s="13"/>
@@ -6347,27 +6365,27 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="T42" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:19:54-0600',mode:absolute,to:'2016-05-21 10:06:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y42&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V42" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
         <v>1</v>
       </c>
       <c r="W42" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X42" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y42" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X42-W42)</f>
         <v>23.283100000000001</v>
       </c>
       <c r="Z42" s="75" t="e">
@@ -6411,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L43" s="61" t="str">
@@ -6419,11 +6437,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="18"/>
+        <f>I43-F43</f>
         <v>2.7569444442633539E-2</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M43:$M43)</f>
         <v>39.699999997392297</v>
       </c>
       <c r="O43" s="13"/>
@@ -6431,27 +6449,27 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="T43" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:39:56-0600',mode:absolute,to:'2016-05-21 09:23:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y43&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V43" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
         <v>1</v>
       </c>
       <c r="W43" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="X43" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y43" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X43-W43)</f>
         <v>23.266399999999997</v>
       </c>
       <c r="Z43" s="75" t="e">
@@ -6495,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L44" s="61" t="str">
@@ -6503,7 +6521,7 @@
         <v>LEVIN</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="18"/>
+        <f>I44-F44</f>
         <v>3.4976851857209112E-2</v>
       </c>
       <c r="N44" s="13">
@@ -6515,27 +6533,27 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="T44" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:29:59-0600',mode:absolute,to:'2016-05-21 12:17:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y44&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V44" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
         <v>1</v>
       </c>
       <c r="W44" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X44" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y44" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X44-W44)</f>
         <v>23.283299999999997</v>
       </c>
       <c r="Z44" s="75" t="e">
@@ -6579,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L45" s="61" t="str">
@@ -6587,13 +6605,13 @@
         <v>LEVIN</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="18"/>
+        <f>I45-F45</f>
         <v>1.0532407395658083E-3</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M45:$M45)</f>
         <v>1.516666664974764</v>
       </c>
       <c r="Q45" s="62" t="s">
@@ -6603,27 +6621,27 @@
         <v>599</v>
       </c>
       <c r="T45" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:29:59-0600',mode:absolute,to:'2016-05-21 09:34:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y45&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V45" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
         <v>0</v>
       </c>
       <c r="W45" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X45" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="Y45" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X45-W45)</f>
         <v>0</v>
       </c>
       <c r="Z45" s="75" t="e">
@@ -6667,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L46" s="61" t="str">
@@ -6675,11 +6693,11 @@
         <v>YANAI</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="18"/>
+        <f>I46-F46</f>
         <v>2.7418981480877846E-2</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M46:$M46)</f>
         <v>39.483333332464099</v>
       </c>
       <c r="O46" s="13"/>
@@ -6687,27 +6705,27 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="T46" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:55:37-0600',mode:absolute,to:'2016-05-21 09:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y46&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V46" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
         <v>1</v>
       </c>
       <c r="W46" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X46" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
         <v>23.3081</v>
       </c>
       <c r="Y46" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X46-W46)</f>
         <v>23.261199999999999</v>
       </c>
       <c r="Z46" s="75" t="e">
@@ -6751,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L47" s="61" t="str">
@@ -6759,11 +6777,11 @@
         <v>YANAI</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="18"/>
+        <f>I47-F47</f>
         <v>2.9270833329064772E-2</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M47:$M47)</f>
         <v>42.149999993853271</v>
       </c>
       <c r="O47" s="13"/>
@@ -6771,27 +6789,27 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="T47" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:49:21-0600',mode:absolute,to:'2016-05-21 10:34:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y47&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V47" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
         <v>1</v>
       </c>
       <c r="W47" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
         <v>23.292300000000001</v>
       </c>
       <c r="X47" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H47,LEN(H47)-4)/10000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y47" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X47-W47)</f>
         <v>23.2758</v>
       </c>
       <c r="Z47" s="75" t="e">
@@ -6835,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L48" s="61" t="str">
@@ -6843,11 +6861,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="18"/>
+        <f>I48-F48</f>
         <v>3.7094907405844424E-2</v>
       </c>
       <c r="N48" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M48:$M48)</f>
         <v>53.41666666441597</v>
       </c>
       <c r="O48" s="13"/>
@@ -6855,27 +6873,27 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
       <c r="T48" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 08:53:06-0600',mode:absolute,to:'2016-05-21 09:53:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y48&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V48" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A48,3))-VALUE(LEFT(A47,3))</f>
         <v>1</v>
       </c>
       <c r="W48" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="X48" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
         <v>23.323599999999999</v>
       </c>
       <c r="Y48" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X48-W48)</f>
         <v>23.292199999999998</v>
       </c>
       <c r="Z48" s="75" t="e">
@@ -6919,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L49" s="61" t="str">
@@ -6927,11 +6945,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="18"/>
+        <f>I49-F49</f>
         <v>3.3599537040572613E-2</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M49:$M49)</f>
         <v>48.383333338424563</v>
       </c>
       <c r="O49" s="13"/>
@@ -6939,27 +6957,27 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="T49" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:05:50-0600',mode:absolute,to:'2016-05-21 10:57:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y49&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V49" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
         <v>1</v>
       </c>
       <c r="W49" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
         <v>23.2925</v>
       </c>
       <c r="X49" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y49" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X49-W49)</f>
         <v>23.276700000000002</v>
       </c>
       <c r="Z49" s="75" t="e">
@@ -7003,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L50" s="61" t="str">
@@ -7011,11 +7029,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="18"/>
+        <f>I50-F50</f>
         <v>2.7164351849933155E-2</v>
       </c>
       <c r="N50" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M50:$M50)</f>
         <v>39.116666663903743</v>
       </c>
       <c r="O50" s="13"/>
@@ -7023,27 +7041,27 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="T50" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:26:19-0600',mode:absolute,to:'2016-05-21 10:08:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y50&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V50" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
         <v>1</v>
       </c>
       <c r="W50" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X50" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y50" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X50-W50)</f>
         <v>23.283799999999999</v>
       </c>
       <c r="Z50" s="75" t="e">
@@ -7087,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L51" s="61" t="str">
@@ -7095,11 +7113,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="18"/>
+        <f>I51-F51</f>
         <v>3.4884259257523809E-2</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M51:$M51)</f>
         <v>50.233333330834284</v>
       </c>
       <c r="O51" s="13"/>
@@ -7107,27 +7125,27 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="T51" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:14:07-0600',mode:absolute,to:'2016-05-21 11:08:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y51&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V51" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
         <v>1</v>
       </c>
       <c r="W51" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="X51" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y51" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X51-W51)</f>
         <v>23.283399999999997</v>
       </c>
       <c r="Z51" s="75" t="e">
@@ -7171,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L52" s="61" t="str">
@@ -7179,11 +7197,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="18"/>
+        <f>I52-F52</f>
         <v>2.810185185080627E-2</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M52:$M52)</f>
         <v>40.466666665161029</v>
       </c>
       <c r="O52" s="13"/>
@@ -7191,27 +7209,27 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="T52" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:39:10-0600',mode:absolute,to:'2016-05-21 10:23:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y52&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V52" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
         <v>1</v>
       </c>
       <c r="W52" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X52" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y52" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X52-W52)</f>
         <v>23.2836</v>
       </c>
       <c r="Z52" s="75" t="e">
@@ -7255,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7263,11 +7281,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="18"/>
+        <f>I53-F53</f>
         <v>3.5601851850515231E-2</v>
       </c>
       <c r="N53" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M53:$M53)</f>
         <v>51.266666664741933</v>
       </c>
       <c r="O53" s="13"/>
@@ -7275,27 +7293,27 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
       <c r="T53" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:28:34-0600',mode:absolute,to:'2016-05-21 11:23:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y53&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V53" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
         <v>1</v>
       </c>
       <c r="W53" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
         <v>23.2973</v>
       </c>
       <c r="X53" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
         <v>1.78E-2</v>
       </c>
       <c r="Y53" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X53-W53)</f>
         <v>23.279499999999999</v>
       </c>
       <c r="Z53" s="75" t="e">
@@ -7339,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7347,11 +7365,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="18"/>
+        <f>I54-F54</f>
         <v>2.5856481479422655E-2</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M54:$M54)</f>
         <v>37.233333330368623</v>
       </c>
       <c r="O54" s="13"/>
@@ -7359,27 +7377,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 09:59:53-0600',mode:absolute,to:'2016-05-21 10:40:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y54&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V54" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
         <v>1</v>
       </c>
       <c r="W54" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
         <v>0.12330000000000001</v>
       </c>
       <c r="X54" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y54" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X54-W54)</f>
         <v>23.206399999999999</v>
       </c>
       <c r="Z54" s="75">
@@ -7423,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7431,11 +7449,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="18"/>
+        <f>I55-F55</f>
         <v>3.3773148148611654E-2</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M55:$M55)</f>
         <v>48.633333334000781</v>
       </c>
       <c r="O55" s="13"/>
@@ -7443,27 +7461,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:43:58-0600',mode:absolute,to:'2016-05-21 11:35:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y55&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V55" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
         <v>1</v>
       </c>
       <c r="W55" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X55" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y55" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X55-W55)</f>
         <v>23.2819</v>
       </c>
       <c r="Z55" s="75">
@@ -7507,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7515,11 +7533,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="18"/>
+        <f>I56-F56</f>
         <v>2.8078703704522923E-2</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M56:$M56)</f>
         <v>40.433333334513009</v>
       </c>
       <c r="O56" s="13"/>
@@ -7527,27 +7545,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:11:50-0600',mode:absolute,to:'2016-05-21 10:55:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y56&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V56" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
         <v>1</v>
       </c>
       <c r="W56" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X56" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y56" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X56-W56)</f>
         <v>23.281600000000001</v>
       </c>
       <c r="Z56" s="75" t="e">
@@ -7591,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7599,11 +7617,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="18"/>
+        <f>I57-F57</f>
         <v>3.2858796301297843E-2</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M57:$M57)</f>
         <v>47.316666673868895</v>
       </c>
       <c r="O57" s="13"/>
@@ -7611,27 +7629,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:03:11-0600',mode:absolute,to:'2016-05-21 11:53:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y57&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V57" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
         <v>1</v>
       </c>
       <c r="W57" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
         <v>23.2986</v>
       </c>
       <c r="X57" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y57" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X57-W57)</f>
         <v>23.2836</v>
       </c>
       <c r="Z57" s="75" t="e">
@@ -7675,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7683,11 +7701,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="18"/>
+        <f>I58-F58</f>
         <v>2.7719907404389232E-2</v>
       </c>
       <c r="N58" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M58:$M58)</f>
         <v>39.916666662320495</v>
       </c>
       <c r="O58" s="13"/>
@@ -7695,27 +7713,27 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
       <c r="T58" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:25:29-0600',mode:absolute,to:'2016-05-21 11:09:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y58&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V58" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
         <v>1</v>
       </c>
       <c r="W58" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
         <v>0.1198</v>
       </c>
       <c r="X58" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y58" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X58-W58)</f>
         <v>23.211699999999997</v>
       </c>
       <c r="Z58" s="75" t="e">
@@ -7759,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7767,11 +7785,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="18"/>
+        <f>I59-F59</f>
         <v>4.0069444446999114E-2</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M59:$M59)</f>
         <v>57.700000003678724</v>
       </c>
       <c r="O59" s="13"/>
@@ -7779,27 +7797,27 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:15:19-0600',mode:absolute,to:'2016-05-21 12:18:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y59&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V59" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
         <v>1</v>
       </c>
       <c r="W59" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
       <c r="X59" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y59" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X59-W59)</f>
         <v>23.283799999999999</v>
       </c>
       <c r="Z59" s="75" t="e">
@@ -7843,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7851,11 +7869,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="18"/>
+        <f>I60-F60</f>
         <v>3.0567129630071577E-2</v>
       </c>
       <c r="N60" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M60:$M60)</f>
         <v>44.01666666730307</v>
       </c>
       <c r="O60" s="13"/>
@@ -7863,27 +7881,27 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
       <c r="T60" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:37:29-0600',mode:absolute,to:'2016-05-21 11:24:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y60&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V60" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
         <v>1</v>
       </c>
       <c r="W60" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="X60" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
         <v>23.3124</v>
       </c>
       <c r="Y60" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X60-W60)</f>
         <v>23.262900000000002</v>
       </c>
       <c r="Z60" s="75">
@@ -7927,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7935,11 +7953,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="18"/>
+        <f>I61-F61</f>
         <v>3.9467592592700385E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M61:$M61)</f>
         <v>56.833333333488554</v>
       </c>
       <c r="O61" s="13"/>
@@ -7947,27 +7965,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:31:40-0600',mode:absolute,to:'2016-05-21 12:31:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y61&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V61" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
         <v>1</v>
       </c>
       <c r="W61" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
         <v>23.2959</v>
       </c>
       <c r="X61" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y61" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X61-W61)</f>
         <v>23.281199999999998</v>
       </c>
       <c r="Z61" s="75" t="e">
@@ -8011,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -8019,11 +8037,11 @@
         <v>YANAI</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="18"/>
+        <f>I62-F62</f>
         <v>2.693287036527181E-2</v>
       </c>
       <c r="N62" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M62:$M62)</f>
         <v>38.783333325991407</v>
       </c>
       <c r="O62" s="13"/>
@@ -8031,27 +8049,27 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
       <c r="T62" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 10:56:49-0600',mode:absolute,to:'2016-05-21 11:38:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y62&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V62" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
         <v>1</v>
       </c>
       <c r="W62" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X62" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
         <v>23.330200000000001</v>
       </c>
       <c r="Y62" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X62-W62)</f>
         <v>23.284000000000002</v>
       </c>
       <c r="Z62" s="75" t="e">
@@ -8095,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -8103,11 +8121,11 @@
         <v>YANAI</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="18"/>
+        <f>I63-F63</f>
         <v>4.5011574075033423E-2</v>
       </c>
       <c r="N63" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M63:$M63)</f>
         <v>64.816666668048128</v>
       </c>
       <c r="O63" s="13"/>
@@ -8115,27 +8133,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:51:44-0600',mode:absolute,to:'2016-05-21 13:00:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y63&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V63" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
         <v>1</v>
       </c>
       <c r="W63" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
         <v>23.2972</v>
       </c>
       <c r="X63" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
         <v>2.07E-2</v>
       </c>
       <c r="Y63" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X63-W63)</f>
         <v>23.276499999999999</v>
       </c>
       <c r="Z63" s="75">
@@ -8179,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8187,11 +8205,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="18"/>
+        <f>I64-F64</f>
         <v>2.806712962774327E-2</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M64:$M64)</f>
         <v>40.416666663950309</v>
       </c>
       <c r="O64" s="13"/>
@@ -8199,27 +8217,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:11:30-0600',mode:absolute,to:'2016-05-21 11:55:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y64&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V64" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
         <v>1</v>
       </c>
       <c r="W64" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="X64" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
         <v>23.331199999999999</v>
       </c>
       <c r="Y64" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X64-W64)</f>
         <v>23.2883</v>
       </c>
       <c r="Z64" s="75">
@@ -8263,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8271,11 +8289,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="18"/>
+        <f>I65-F65</f>
         <v>8.7743055555620231E-2</v>
       </c>
       <c r="N65" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M65:$M65)</f>
         <v>126.35000000009313</v>
       </c>
       <c r="O65" s="13"/>
@@ -8283,27 +8301,27 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
       <c r="T65" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 12:02:22-0600',mode:absolute,to:'2016-05-21 14:12:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y65&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V65" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
         <v>1</v>
       </c>
       <c r="W65" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X65" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y65" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X65-W65)</f>
         <v>23.283200000000001</v>
       </c>
       <c r="Z65" s="75">
@@ -8347,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8355,11 +8373,11 @@
         <v>BONDS</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="18"/>
+        <f>I66-F66</f>
         <v>2.8773148143955041E-2</v>
       </c>
       <c r="N66" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M66:$M66)</f>
         <v>41.433333327295259</v>
       </c>
       <c r="O66" s="13"/>
@@ -8367,27 +8385,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:23:09-0600',mode:absolute,to:'2016-05-21 12:08:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y66&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V66" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
         <v>1</v>
       </c>
       <c r="W66" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X66" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
         <v>23.333100000000002</v>
       </c>
       <c r="Y66" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X66-W66)</f>
         <v>23.286700000000003</v>
       </c>
       <c r="Z66" s="75" t="e">
@@ -8431,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8439,11 +8457,11 @@
         <v>BONDS</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="18"/>
+        <f>I67-F67</f>
         <v>3.5706018512428273E-2</v>
       </c>
       <c r="N67" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M67:$M67)</f>
         <v>51.416666657896712</v>
       </c>
       <c r="O67" s="13"/>
@@ -8451,27 +8469,27 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
       <c r="T67" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:29:03-0600',mode:absolute,to:'2016-05-21 14:23:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y67&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V67" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
         <v>1</v>
       </c>
       <c r="W67" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>23.226700000000001</v>
       </c>
       <c r="X67" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y67" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X67-W67)</f>
         <v>23.213100000000001</v>
       </c>
       <c r="Z67" s="75">
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8523,7 +8541,7 @@
         <v>BONDS</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="18"/>
+        <f>I68-F68</f>
         <v>1.7407407409336884E-2</v>
       </c>
       <c r="N68" s="13"/>
@@ -8539,27 +8557,27 @@
         <v>603</v>
       </c>
       <c r="T68" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 12:11:44-0600',mode:absolute,to:'2016-05-21 12:40:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y68&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V68" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
         <v>0</v>
       </c>
       <c r="W68" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="X68" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
         <v>23.226400000000002</v>
       </c>
       <c r="Y68" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X68-W68)</f>
         <v>7.3599999999999E-2</v>
       </c>
       <c r="Z68" s="75">
@@ -8603,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8611,11 +8629,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="18"/>
+        <f>I69-F69</f>
         <v>2.7523148150066845E-2</v>
       </c>
       <c r="N69" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M69:$M69)</f>
         <v>39.633333336096257</v>
       </c>
       <c r="O69" s="13"/>
@@ -8623,27 +8641,27 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:39:49-0600',mode:absolute,to:'2016-05-21 12:23:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y69&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V69" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
         <v>1</v>
       </c>
       <c r="W69" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X69" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
         <v>23.336400000000001</v>
       </c>
       <c r="Y69" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X69-W69)</f>
         <v>23.292200000000001</v>
       </c>
       <c r="Z69" s="75">
@@ -8687,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8695,11 +8713,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="18"/>
+        <f>I70-F70</f>
         <v>4.9768518518249039E-2</v>
       </c>
       <c r="N70" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M70:$M70)</f>
         <v>71.666666666278616</v>
       </c>
       <c r="O70" s="13"/>
@@ -8707,27 +8725,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:27:31-0600',mode:absolute,to:'2016-05-21 14:42:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y70&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
         <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
         <v>23.304400000000001</v>
       </c>
       <c r="X70" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y70" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X70-W70)</f>
         <v>23.289200000000001</v>
       </c>
       <c r="Z70" s="75" t="e">
@@ -8771,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8779,11 +8797,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="18"/>
+        <f>I71-F71</f>
         <v>8.261574074276723E-2</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M71:$M71)</f>
         <v>118.96666666958481</v>
       </c>
       <c r="O71" s="13"/>
@@ -8791,27 +8809,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 11:56:27-0600',mode:absolute,to:'2016-05-21 14:01:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y71&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V71" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
         <v>1</v>
       </c>
       <c r="W71" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X71" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
         <v>23.328499999999998</v>
       </c>
       <c r="Y71" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X71-W71)</f>
         <v>23.283199999999997</v>
       </c>
       <c r="Z71" s="75" t="e">
@@ -8855,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f t="shared" ref="K72:K134" si="25">IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8863,7 +8881,7 @@
         <v>STEWART</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" ref="M72:M134" si="26">I72-F72</f>
+        <f>I72-F72</f>
         <v>6.1516203699284233E-2</v>
       </c>
       <c r="N72" s="13"/>
@@ -8879,27 +8897,27 @@
         <v>605</v>
       </c>
       <c r="T72" s="74" t="str">
-        <f t="shared" ref="T72:T134" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 12:20:54-0600',mode:absolute,to:'2016-05-21 13:55:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
-        <f t="shared" ref="U72:U134" si="28">IF(Y72&lt;23,"Y","N")</f>
+        <f>IF(Y72&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V72" s="74">
-        <f t="shared" ref="V72:V134" si="29">VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
         <v>2</v>
       </c>
       <c r="W72" s="74">
-        <f t="shared" ref="W72:W134" si="30">RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X72" s="74">
-        <f t="shared" ref="X72:X134" si="31">RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
         <v>5.2135999999999996</v>
       </c>
       <c r="Y72" s="74">
-        <f t="shared" ref="Y72:Y134" si="32">ABS(X72-W72)</f>
+        <f>ABS(X72-W72)</f>
         <v>5.1671999999999993</v>
       </c>
       <c r="Z72" s="75">
@@ -8943,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8951,7 +8969,7 @@
         <v>STEWART</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="26"/>
+        <f>I73-F73</f>
         <v>1.746527777868323E-2</v>
       </c>
       <c r="N73" s="13"/>
@@ -8960,27 +8978,27 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
       <c r="T73" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:57:04-0600',mode:absolute,to:'2016-05-21 14:24:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y73&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V73" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
         <v>0</v>
       </c>
       <c r="W73" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
         <v>6.47</v>
       </c>
       <c r="X73" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
         <v>23.3323</v>
       </c>
       <c r="Y73" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X73-W73)</f>
         <v>16.862300000000001</v>
       </c>
       <c r="Z73" s="75">
@@ -9024,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -9032,7 +9050,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="26"/>
+        <f>I74-F74</f>
         <v>4.520833332935581E-2</v>
       </c>
       <c r="N74" s="13">
@@ -9044,27 +9062,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:26:52-0600',mode:absolute,to:'2016-05-21 14:37:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y74&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V74" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
         <v>2</v>
       </c>
       <c r="W74" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X74" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
         <v>23.332000000000001</v>
       </c>
       <c r="Y74" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X74-W74)</f>
         <v>23.2883</v>
       </c>
       <c r="Z74" s="75">
@@ -9108,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -9116,7 +9134,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="26"/>
+        <f>I75-F75</f>
         <v>3.2546296293730848E-2</v>
       </c>
       <c r="N75" s="13">
@@ -9128,27 +9146,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:48:38-0600',mode:absolute,to:'2016-05-21 16:38:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y75&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V75" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
         <v>0</v>
       </c>
       <c r="W75" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X75" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
         <v>23.304600000000001</v>
       </c>
       <c r="Y75" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X75-W75)</f>
         <v>23.26</v>
       </c>
       <c r="Z75" s="75">
@@ -9192,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -9200,7 +9218,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="26"/>
+        <f>I76-F76</f>
         <v>3.1481481491937302E-3</v>
       </c>
       <c r="N76" s="13"/>
@@ -9210,33 +9228,33 @@
         <v>4.5333333348389715</v>
       </c>
       <c r="Q76" s="62" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="R76" s="62" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="T76" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:04:59-0600',mode:absolute,to:'2016-05-21 13:13:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y76&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V76" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
         <v>0</v>
       </c>
       <c r="W76" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="X76" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
         <v>1.9016</v>
       </c>
       <c r="Y76" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X76-W76)</f>
         <v>1.853</v>
       </c>
       <c r="Z76" s="75">
@@ -9280,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9288,7 +9306,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="26"/>
+        <f>I77-F77</f>
         <v>5.9722222213167697E-3</v>
       </c>
       <c r="N77" s="13"/>
@@ -9298,33 +9316,33 @@
         <v>8.5999999986961484</v>
       </c>
       <c r="Q77" s="62" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="R77" s="62" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="T77" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:14:50-0600',mode:absolute,to:'2016-05-21 13:26:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y77&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V77" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
         <v>1</v>
       </c>
       <c r="W77" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
         <v>1.8900999999999999</v>
       </c>
       <c r="X77" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y77" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X77-W77)</f>
         <v>1.8737999999999999</v>
       </c>
       <c r="Z77" s="75" t="e">
@@ -9368,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9376,11 +9394,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="26"/>
+        <f>I78-F78</f>
         <v>6.5624999995634425E-2</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M78:$M78)</f>
         <v>94.499999993713573</v>
       </c>
       <c r="O78" s="13"/>
@@ -9388,27 +9406,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 13:05:44-0600',mode:absolute,to:'2016-05-21 14:45:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y78&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V78" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
         <v>1</v>
       </c>
       <c r="W78" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="X78" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
         <v>23.332100000000001</v>
       </c>
       <c r="Y78" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X78-W78)</f>
         <v>23.2806</v>
       </c>
       <c r="Z78" s="75" t="e">
@@ -9452,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9460,11 +9478,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="26"/>
+        <f>I79-F79</f>
         <v>3.7256944444379769E-2</v>
       </c>
       <c r="N79" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M79:$M79)</f>
         <v>53.649999999906868</v>
       </c>
       <c r="O79" s="13"/>
@@ -9472,27 +9490,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:06:45-0600',mode:absolute,to:'2016-05-21 15:03:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y79&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V79" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
         <v>5</v>
       </c>
       <c r="W79" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
         <v>23.298100000000002</v>
       </c>
       <c r="X79" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y79" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X79-W79)</f>
         <v>23.2836</v>
       </c>
       <c r="Z79" s="75" t="e">
@@ -9536,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9544,7 +9562,7 @@
         <v>STEWART</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="26"/>
+        <f>I80-F80</f>
         <v>2.0925925928167999E-2</v>
       </c>
       <c r="N80" s="13"/>
@@ -9560,27 +9578,27 @@
         <v>605</v>
       </c>
       <c r="T80" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:34:46-0600',mode:absolute,to:'2016-05-21 15:08:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y80&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V80" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
         <v>2</v>
       </c>
       <c r="W80" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X80" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
         <v>5.4313000000000002</v>
       </c>
       <c r="Y80" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X80-W80)</f>
         <v>17.8674</v>
       </c>
       <c r="Z80" s="75" t="e">
@@ -9624,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9632,7 +9650,7 @@
         <v>STEWART</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="26"/>
+        <f>I81-F81</f>
         <v>7.2106481529772282E-3</v>
       </c>
       <c r="N81" s="13"/>
@@ -9641,27 +9659,27 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
       <c r="T81" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:11:33-0600',mode:absolute,to:'2016-05-21 15:25:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y81&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V81" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
         <v>0</v>
       </c>
       <c r="W81" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
         <v>3.6793999999999998</v>
       </c>
       <c r="X81" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="Y81" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X81-W81)</f>
         <v>3.6566999999999998</v>
       </c>
       <c r="Z81" s="75" t="e">
@@ -9705,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9713,11 +9731,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="26"/>
+        <f>I82-F82</f>
         <v>3.9305555554165039E-2</v>
       </c>
       <c r="N82" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M82:$M82)</f>
         <v>56.599999997997656</v>
       </c>
       <c r="O82" s="13"/>
@@ -9725,27 +9743,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:45:13-0600',mode:absolute,to:'2016-05-21 15:45:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y82&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V82" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
         <v>4</v>
       </c>
       <c r="W82" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X82" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y82" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X82-W82)</f>
         <v>23.2822</v>
       </c>
       <c r="Z82" s="75">
@@ -9789,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9797,7 +9815,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="26"/>
+        <f>I83-F83</f>
         <v>2.9305555559403729E-2</v>
       </c>
       <c r="N83" s="13"/>
@@ -9810,30 +9828,30 @@
         <v>598</v>
       </c>
       <c r="R83" s="62" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="T83" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:27:46-0600',mode:absolute,to:'2016-05-21 15:16:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y83&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V83" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
         <v>1</v>
       </c>
       <c r="W83" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
         <v>1.9118999999999999</v>
       </c>
       <c r="X83" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
         <v>23.334900000000001</v>
       </c>
       <c r="Y83" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X83-W83)</f>
         <v>21.423000000000002</v>
       </c>
       <c r="Z83" s="75">
@@ -9877,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9885,11 +9903,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="26"/>
+        <f>I84-F84</f>
         <v>3.8761574076488614E-2</v>
       </c>
       <c r="N84" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M84:$M84)</f>
         <v>55.816666670143604</v>
       </c>
       <c r="O84" s="13"/>
@@ -9897,27 +9915,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:55:14-0600',mode:absolute,to:'2016-05-21 15:55:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y84&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V84" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
         <v>1</v>
       </c>
       <c r="W84" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X84" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y84" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X84-W84)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z84" s="75" t="e">
@@ -9961,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9969,11 +9987,11 @@
         <v>BONDS</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="26"/>
+        <f>I85-F85</f>
         <v>3.8437499999417923E-2</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M85:$M85)</f>
         <v>55.34999999916181</v>
       </c>
       <c r="O85" s="13"/>
@@ -9981,27 +9999,27 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
       <c r="T85" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:27:15-0600',mode:absolute,to:'2016-05-21 15:25:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y85&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V85" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
         <v>1</v>
       </c>
       <c r="W85" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X85" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
         <v>23.331</v>
       </c>
       <c r="Y85" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X85-W85)</f>
         <v>23.2864</v>
       </c>
       <c r="Z85" s="75">
@@ -10045,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -10053,11 +10071,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="26"/>
+        <f>I86-F86</f>
         <v>3.2627314816636499E-2</v>
       </c>
       <c r="N86" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M86:$M86)</f>
         <v>46.983333335956559</v>
       </c>
       <c r="O86" s="13"/>
@@ -10065,27 +10083,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:20:27-0600',mode:absolute,to:'2016-05-21 16:10:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y86&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V86" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
         <v>1</v>
       </c>
       <c r="W86" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X86" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y86" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X86-W86)</f>
         <v>23.2837</v>
       </c>
       <c r="Z86" s="75" t="e">
@@ -10129,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -10137,11 +10155,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="26"/>
+        <f>I87-F87</f>
         <v>3.326388888672227E-2</v>
       </c>
       <c r="N87" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M87:$M87)</f>
         <v>47.899999996880069</v>
       </c>
       <c r="O87" s="13"/>
@@ -10149,27 +10167,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 14:42:27-0600',mode:absolute,to:'2016-05-21 15:36:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y87&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V87" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
         <v>1</v>
       </c>
       <c r="W87" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X87" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
         <v>23.336200000000002</v>
       </c>
       <c r="Y87" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X87-W87)</f>
         <v>23.2896</v>
       </c>
       <c r="Z87" s="75">
@@ -10213,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10221,11 +10239,11 @@
         <v>BONDS</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="26"/>
+        <f>I88-F88</f>
         <v>3.6701388889923692E-2</v>
       </c>
       <c r="N88" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M88:$M88)</f>
         <v>52.850000001490116</v>
       </c>
       <c r="O88" s="13"/>
@@ -10233,27 +10251,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:28:45-0600',mode:absolute,to:'2016-05-21 16:25:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y88&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V88" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
         <v>1</v>
       </c>
       <c r="W88" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
         <v>23.299399999999999</v>
       </c>
       <c r="X88" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y88" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X88-W88)</f>
         <v>23.284399999999998</v>
       </c>
       <c r="Z88" s="75">
@@ -10297,7 +10315,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10305,11 +10323,11 @@
         <v>BEAM</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="26"/>
+        <f>I89-F89</f>
         <v>2.8483796297223307E-2</v>
       </c>
       <c r="N89" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M89:$M89)</f>
         <v>41.016666668001562</v>
       </c>
       <c r="O89" s="13"/>
@@ -10317,27 +10335,27 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:06:07-0600',mode:absolute,to:'2016-05-21 15:50:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y89&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V89" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
         <v>1</v>
       </c>
       <c r="W89" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
         <v>0.11600000000000001</v>
       </c>
       <c r="X89" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y89" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X89-W89)</f>
         <v>23.215499999999999</v>
       </c>
       <c r="Z89" s="75">
@@ -10381,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10389,11 +10407,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="26"/>
+        <f>I90-F90</f>
         <v>3.5636574073578231E-2</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M90:$M90)</f>
         <v>51.316666665952653</v>
       </c>
       <c r="O90" s="13"/>
@@ -10401,27 +10419,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:46:05-0600',mode:absolute,to:'2016-05-21 16:40:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y90&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V90" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
         <v>1</v>
       </c>
       <c r="W90" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
         <v>23.304600000000001</v>
       </c>
       <c r="X90" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y90" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X90-W90)</f>
         <v>23.2896</v>
       </c>
       <c r="Z90" s="75" t="e">
@@ -10465,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10473,11 +10491,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="26"/>
+        <f>I91-F91</f>
         <v>3.221064815443242E-2</v>
       </c>
       <c r="N91" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M91:$M91)</f>
         <v>46.383333342382684</v>
       </c>
       <c r="O91" s="13"/>
@@ -10485,27 +10503,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:12:51-0600',mode:absolute,to:'2016-05-21 16:02:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y91&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V91" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
         <v>1</v>
       </c>
       <c r="W91" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X91" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
         <v>23.317599999999999</v>
       </c>
       <c r="Y91" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X91-W91)</f>
         <v>23.272499999999997</v>
       </c>
       <c r="Z91" s="75" t="e">
@@ -10549,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10557,11 +10575,11 @@
         <v>BEAM</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="26"/>
+        <f>I92-F92</f>
         <v>3.1122685184527654E-2</v>
       </c>
       <c r="N92" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M92:$M92)</f>
         <v>44.816666665719822</v>
       </c>
       <c r="O92" s="13"/>
@@ -10569,27 +10587,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:01:48-0600',mode:absolute,to:'2016-05-21 16:49:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y92&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V92" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
         <v>1</v>
       </c>
       <c r="W92" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
         <v>23.3002</v>
       </c>
       <c r="X92" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
         <v>0.1028</v>
       </c>
       <c r="Y92" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X92-W92)</f>
         <v>23.197400000000002</v>
       </c>
       <c r="Z92" s="75">
@@ -10633,7 +10651,7 @@
         <v>3</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10641,11 +10659,11 @@
         <v>STEWART</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="26"/>
+        <f>I93-F93</f>
         <v>3.0937499999708962E-2</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M93:$M93)</f>
         <v>44.549999999580905</v>
       </c>
       <c r="O93" s="13"/>
@@ -10653,27 +10671,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:30:18-0600',mode:absolute,to:'2016-05-21 16:18:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y93&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V93" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
         <v>1</v>
       </c>
       <c r="W93" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="X93" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
         <v>23.323599999999999</v>
       </c>
       <c r="Y93" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X93-W93)</f>
         <v>23.269399999999997</v>
       </c>
       <c r="Z93" s="75">
@@ -10717,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10725,11 +10743,11 @@
         <v>STEWART</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="26"/>
+        <f>I94-F94</f>
         <v>2.718750000349246E-2</v>
       </c>
       <c r="N94" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M94:$M94)</f>
         <v>39.150000005029142</v>
       </c>
       <c r="O94" s="13"/>
@@ -10737,27 +10755,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:23:31-0600',mode:absolute,to:'2016-05-21 19:21:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y94&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V94" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
         <v>1</v>
       </c>
       <c r="W94" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
         <v>23.2913</v>
       </c>
       <c r="X94" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y94" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X94-W94)</f>
         <v>23.273299999999999</v>
       </c>
       <c r="Z94" s="75" t="e">
@@ -10801,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10809,11 +10827,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="26"/>
+        <f>I95-F95</f>
         <v>2.7349537034751847E-2</v>
       </c>
       <c r="N95" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M95:$M95)</f>
         <v>39.38333333004266</v>
       </c>
       <c r="O95" s="13"/>
@@ -10821,11 +10839,11 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:46:59-0600',mode:absolute,to:'2016-05-21 17:29:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y95&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V95" s="74" t="e">
@@ -10833,15 +10851,15 @@
         <v>#REF!</v>
       </c>
       <c r="W95" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
         <v>23.289400000000001</v>
       </c>
       <c r="X95" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y95" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X95-W95)</f>
         <v>23.273600000000002</v>
       </c>
       <c r="Z95" s="75" t="e">
@@ -10885,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10893,11 +10911,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="26"/>
+        <f>I96-F96</f>
         <v>3.3078703701903578E-2</v>
       </c>
       <c r="N96" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M96:$M96)</f>
         <v>47.633333330741152</v>
       </c>
       <c r="O96" s="13"/>
@@ -10905,27 +10923,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 15:56:27-0600',mode:absolute,to:'2016-05-21 16:47:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y96&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V96" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
         <v>1</v>
       </c>
       <c r="W96" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X96" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y96" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X96-W96)</f>
         <v>23.286899999999999</v>
       </c>
       <c r="Z96" s="75" t="e">
@@ -10969,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10977,11 +10995,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" si="26"/>
+        <f>I97-F97</f>
         <v>3.1469907407881692E-2</v>
       </c>
       <c r="N97" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M97:$M97)</f>
         <v>45.316666667349637</v>
       </c>
       <c r="O97" s="13"/>
@@ -10989,27 +11007,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:53:02-0600',mode:absolute,to:'2016-05-21 17:41:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y97&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V97" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
         <v>1</v>
       </c>
       <c r="W97" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
         <v>23.300999999999998</v>
       </c>
       <c r="X97" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="Y97" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X97-W97)</f>
         <v>23.208599999999997</v>
       </c>
       <c r="Z97" s="75">
@@ -11053,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -11061,11 +11079,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="26"/>
+        <f>I98-F98</f>
         <v>2.7106481480586808E-2</v>
       </c>
       <c r="N98" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M98:$M98)</f>
         <v>39.033333332045004</v>
       </c>
       <c r="O98" s="13"/>
@@ -11073,27 +11091,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:14:33-0600',mode:absolute,to:'2016-05-21 16:57:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y98&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V98" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
         <v>1</v>
       </c>
       <c r="W98" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X98" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
         <v>23.329899999999999</v>
       </c>
       <c r="Y98" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X98-W98)</f>
         <v>23.284599999999998</v>
       </c>
       <c r="Z98" s="75" t="e">
@@ -11137,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -11145,11 +11163,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="26"/>
+        <f>I99-F99</f>
         <v>3.6782407412829343E-2</v>
       </c>
       <c r="N99" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M99:$M99)</f>
         <v>52.966666674474254</v>
       </c>
       <c r="O99" s="13"/>
@@ -11157,27 +11175,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:01:52-0600',mode:absolute,to:'2016-05-21 17:57:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y99&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V99" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
         <v>1</v>
       </c>
       <c r="W99" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X99" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y99" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X99-W99)</f>
         <v>23.282699999999998</v>
       </c>
       <c r="Z99" s="75">
@@ -11221,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11229,11 +11247,11 @@
         <v>BONDS</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="26"/>
+        <f>I100-F100</f>
         <v>2.9675925921765156E-2</v>
       </c>
       <c r="N100" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M100:$M100)</f>
         <v>42.733333327341825</v>
       </c>
       <c r="O100" s="13"/>
@@ -11241,27 +11259,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:25:30-0600',mode:absolute,to:'2016-05-21 17:12:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y100&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V100" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
         <v>1</v>
       </c>
       <c r="W100" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X100" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
         <v>23.3306</v>
       </c>
       <c r="Y100" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X100-W100)</f>
         <v>23.283100000000001</v>
       </c>
       <c r="Z100" s="75">
@@ -11305,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11313,7 +11331,7 @@
         <v>BONDS</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="26"/>
+        <f>I101-F101</f>
         <v>2.0960648151230998E-2</v>
       </c>
       <c r="N101" s="13"/>
@@ -11326,30 +11344,30 @@
         <v>598</v>
       </c>
       <c r="R101" s="62" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="T101" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:16:20-0600',mode:absolute,to:'2016-05-21 17:50:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y101&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V101" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
         <v>1</v>
       </c>
       <c r="W101" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
         <v>23.296399999999998</v>
       </c>
       <c r="X101" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
         <v>7.0533000000000001</v>
       </c>
       <c r="Y101" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X101-W101)</f>
         <v>16.243099999999998</v>
       </c>
       <c r="Z101" s="75">
@@ -11393,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11401,7 +11419,7 @@
         <v>BONDS</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" si="26"/>
+        <f>I102-F102</f>
         <v>1.111111108912155E-3</v>
       </c>
       <c r="N102" s="13"/>
@@ -11410,27 +11428,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:53:09-0600',mode:absolute,to:'2016-05-21 17:57:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y102&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V102" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
         <v>0</v>
       </c>
       <c r="W102" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
         <v>6.4146999999999998</v>
       </c>
       <c r="X102" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
         <v>6.3415999999999997</v>
       </c>
       <c r="Y102" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X102-W102)</f>
         <v>7.3100000000000165E-2</v>
       </c>
       <c r="Z102" s="75">
@@ -11474,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11482,11 +11500,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M103" s="12">
-        <f t="shared" si="26"/>
+        <f>I103-F103</f>
         <v>2.7442129627161194E-2</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M103:$M103)</f>
         <v>39.516666663112119</v>
       </c>
       <c r="O103" s="13"/>
@@ -11494,27 +11512,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 16:42:04-0600',mode:absolute,to:'2016-05-21 17:24:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y103&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X103" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
         <v>23.329899999999999</v>
       </c>
       <c r="Y103" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X103-W103)</f>
         <v>23.284799999999997</v>
       </c>
       <c r="Z103" s="75" t="e">
@@ -11558,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11566,11 +11584,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="26"/>
+        <f>I104-F104</f>
         <v>2.9282407405844424E-2</v>
       </c>
       <c r="N104" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M104:$M104)</f>
         <v>42.16666666441597</v>
       </c>
       <c r="O104" s="13"/>
@@ -11578,27 +11596,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:35:27-0600',mode:absolute,to:'2016-05-21 18:20:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y104&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X104" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y104" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X104-W104)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z104" s="75" t="e">
@@ -11642,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11650,11 +11668,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="26"/>
+        <f>I105-F105</f>
         <v>2.8680555558821652E-2</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M105:$M105)</f>
         <v>41.300000004703179</v>
       </c>
       <c r="O105" s="13"/>
@@ -11662,27 +11680,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:03:44-0600',mode:absolute,to:'2016-05-21 17:48:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y105&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V105" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
         <v>1</v>
       </c>
       <c r="W105" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X105" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
         <v>23.3308</v>
       </c>
       <c r="Y105" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X105-W105)</f>
         <v>23.286799999999999</v>
       </c>
       <c r="Z105" s="75" t="e">
@@ -11726,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11734,11 +11752,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="26"/>
+        <f>I106-F106</f>
         <v>2.9270833336340729E-2</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M106:$M106)</f>
         <v>42.15000000433065</v>
       </c>
       <c r="O106" s="13"/>
@@ -11746,27 +11764,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:50:35-0600',mode:absolute,to:'2016-05-21 18:36:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y106&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V106" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
         <v>1</v>
       </c>
       <c r="W106" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
         <v>23.3004</v>
       </c>
       <c r="X106" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="Y106" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X106-W106)</f>
         <v>23.287700000000001</v>
       </c>
       <c r="Z106" s="75" t="e">
@@ -11810,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11818,11 +11836,11 @@
         <v>BEAM</v>
       </c>
       <c r="M107" s="12">
-        <f t="shared" si="26"/>
+        <f>I107-F107</f>
         <v>2.7662037035042886E-2</v>
       </c>
       <c r="N107" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M107:$M107)</f>
         <v>39.833333330461755</v>
       </c>
       <c r="O107" s="13"/>
@@ -11830,27 +11848,27 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
       <c r="T107" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:19:12-0600',mode:absolute,to:'2016-05-21 18:02:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y107&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V107" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
         <v>1</v>
       </c>
       <c r="W107" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
         <v>0.1188</v>
       </c>
       <c r="X107" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
         <v>23.331900000000001</v>
       </c>
       <c r="Y107" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X107-W107)</f>
         <v>23.213100000000001</v>
       </c>
       <c r="Z107" s="75" t="e">
@@ -11894,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11902,11 +11920,11 @@
         <v>BEAM</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="26"/>
+        <f>I108-F108</f>
         <v>2.7916666665987577E-2</v>
       </c>
       <c r="N108" s="13">
-        <f t="shared" ref="N108:N145" si="33">24*60*SUM($M108:$M108)</f>
+        <f>24*60*SUM($M108:$M108)</f>
         <v>40.199999999022111</v>
       </c>
       <c r="O108" s="13"/>
@@ -11914,27 +11932,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:06:01-0600',mode:absolute,to:'2016-05-21 18:49:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y108&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V108" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
         <v>1</v>
       </c>
       <c r="W108" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
         <v>23.300599999999999</v>
       </c>
       <c r="X108" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="Y108" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X108-W108)</f>
         <v>23.286799999999999</v>
       </c>
       <c r="Z108" s="75">
@@ -11978,7 +11996,7 @@
         <v>2</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11986,11 +12004,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="26"/>
+        <f>I109-F109</f>
         <v>3.1342592592409346E-2</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M109:$M109)</f>
         <v>45.133333333069459</v>
       </c>
       <c r="O109" s="13"/>
@@ -11998,27 +12016,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:31:23-0600',mode:absolute,to:'2016-05-21 18:21:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4002%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y109&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V109" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
         <v>1</v>
       </c>
       <c r="W109" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X109" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
         <v>23.331</v>
       </c>
       <c r="Y109" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X109-W109)</f>
         <v>23.286100000000001</v>
       </c>
       <c r="Z109" s="75">
@@ -12062,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
         <v>4001/4002</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -12070,11 +12088,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="26"/>
+        <f>I110-F110</f>
         <v>2.7361111104255542E-2</v>
       </c>
       <c r="N110" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M110:$M110)</f>
         <v>39.399999990127981</v>
       </c>
       <c r="O110" s="13"/>
@@ -12082,27 +12100,27 @@
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
       <c r="T110" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:22:08-0600',mode:absolute,to:'2016-05-21 19:04:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4001%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y110&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V110" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
         <v>1</v>
       </c>
       <c r="W110" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X110" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y110" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X110-W110)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z110" s="75" t="e">
@@ -12146,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -12154,11 +12172,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="26"/>
+        <f>I111-F111</f>
         <v>3.0879629623086657E-2</v>
       </c>
       <c r="N111" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M111:$M111)</f>
         <v>44.466666657244787</v>
       </c>
       <c r="O111" s="13"/>
@@ -12166,27 +12184,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:45:31-0600',mode:absolute,to:'2016-05-21 18:33:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y111&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V111" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
         <v>1</v>
       </c>
       <c r="W111" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X111" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
         <v>23.332599999999999</v>
       </c>
       <c r="Y111" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X111-W111)</f>
         <v>23.2879</v>
       </c>
       <c r="Z111" s="75" t="e">
@@ -12230,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12238,11 +12256,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="26"/>
+        <f>I112-F112</f>
         <v>2.9131944444088731E-2</v>
       </c>
       <c r="N112" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M112:$M112)</f>
         <v>41.949999999487773</v>
       </c>
       <c r="O112" s="13"/>
@@ -12250,27 +12268,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:36:19-0600',mode:absolute,to:'2016-05-21 19:21:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y112&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V112" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
         <v>1</v>
       </c>
       <c r="W112" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
         <v>23.296700000000001</v>
       </c>
       <c r="X112" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y112" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X112-W112)</f>
         <v>23.278700000000001</v>
       </c>
       <c r="Z112" s="75" t="e">
@@ -12314,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12322,11 +12340,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="26"/>
+        <f>I113-F113</f>
         <v>3.0659722222480923E-2</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M113:$M113)</f>
         <v>44.150000000372529</v>
       </c>
       <c r="O113" s="13"/>
@@ -12334,27 +12352,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 17:58:53-0600',mode:absolute,to:'2016-05-21 18:48:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y113&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V113" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
         <v>1</v>
       </c>
       <c r="W113" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X113" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
         <v>23.3278</v>
       </c>
       <c r="Y113" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X113-W113)</f>
         <v>23.284299999999998</v>
       </c>
       <c r="Z113" s="75" t="e">
@@ -12398,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12406,11 +12424,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="26"/>
+        <f>I114-F114</f>
         <v>2.8854166666860692E-2</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M114:$M114)</f>
         <v>41.550000000279397</v>
       </c>
       <c r="O114" s="13"/>
@@ -12418,27 +12436,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:50:43-0600',mode:absolute,to:'2016-05-21 19:35:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y114&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
         <v>23.297000000000001</v>
       </c>
       <c r="X114" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y114" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X114-W114)</f>
         <v>23.2818</v>
       </c>
       <c r="Z114" s="75" t="e">
@@ -12482,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12490,11 +12508,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="26"/>
+        <f>I115-F115</f>
         <v>2.9918981475930195E-2</v>
       </c>
       <c r="N115" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M115:$M115)</f>
         <v>43.083333325339481</v>
       </c>
       <c r="O115" s="13"/>
@@ -12502,27 +12520,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:15:18-0600',mode:absolute,to:'2016-05-21 19:02:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y115&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V115" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
         <v>1</v>
       </c>
       <c r="W115" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X115" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y115" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X115-W115)</f>
         <v>23.284000000000002</v>
       </c>
       <c r="Z115" s="75" t="e">
@@ -12566,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12574,11 +12592,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="26"/>
+        <f>I116-F116</f>
         <v>2.8634259258979E-2</v>
       </c>
       <c r="N116" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M116:$M116)</f>
         <v>41.23333333292976</v>
       </c>
       <c r="O116" s="13"/>
@@ -12586,27 +12604,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 19:05:12-0600',mode:absolute,to:'2016-05-21 19:49:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y116&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V116" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
         <v>1</v>
       </c>
       <c r="W116" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
         <v>23.297799999999999</v>
       </c>
       <c r="X116" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
         <v>1.78E-2</v>
       </c>
       <c r="Y116" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X116-W116)</f>
         <v>23.279999999999998</v>
       </c>
       <c r="Z116" s="75">
@@ -12650,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12658,11 +12676,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" si="26"/>
+        <f>I117-F117</f>
         <v>2.9351851851970423E-2</v>
       </c>
       <c r="N117" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M117:$M117)</f>
         <v>42.266666666837409</v>
       </c>
       <c r="O117" s="13"/>
@@ -12670,27 +12688,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:22:28-0600',mode:absolute,to:'2016-05-21 19:08:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y117&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V117" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
         <v>1</v>
       </c>
       <c r="W117" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X117" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
         <v>23.324000000000002</v>
       </c>
       <c r="Y117" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X117-W117)</f>
         <v>23.279300000000003</v>
       </c>
       <c r="Z117" s="75" t="e">
@@ -12734,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12742,11 +12760,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M118" s="12">
-        <f t="shared" si="26"/>
+        <f>I118-F118</f>
         <v>2.8356481481750961E-2</v>
       </c>
       <c r="N118" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M118:$M118)</f>
         <v>40.833333333721384</v>
       </c>
       <c r="O118" s="13"/>
@@ -12754,27 +12772,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 19:21:30-0600',mode:absolute,to:'2016-05-21 20:05:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y118&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V118" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
         <v>1</v>
       </c>
       <c r="W118" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X118" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y118" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X118-W118)</f>
         <v>23.2822</v>
       </c>
       <c r="Z118" s="75" t="e">
@@ -12818,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12826,11 +12844,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M119" s="12">
-        <f t="shared" si="26"/>
+        <f>I119-F119</f>
         <v>2.7199074072996154E-2</v>
       </c>
       <c r="N119" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M119:$M119)</f>
         <v>39.166666665114462</v>
       </c>
       <c r="O119" s="13"/>
@@ -12838,27 +12856,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 18:54:51-0600',mode:absolute,to:'2016-05-21 19:37:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y119&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V119" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
         <v>1</v>
       </c>
       <c r="W119" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X119" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
         <v>23.329799999999999</v>
       </c>
       <c r="Y119" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X119-W119)</f>
         <v>23.283999999999999</v>
       </c>
       <c r="Z119" s="75">
@@ -12902,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12910,11 +12928,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M120" s="12">
-        <f t="shared" si="26"/>
+        <f>I120-F120</f>
         <v>3.3958333333430346E-2</v>
       </c>
       <c r="N120" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M120:$M120)</f>
         <v>48.900000000139698</v>
       </c>
       <c r="O120" s="13"/>
@@ -12922,27 +12940,27 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
       <c r="T120" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 19:42:46-0600',mode:absolute,to:'2016-05-21 20:35:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y120&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V120" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
         <v>1</v>
       </c>
       <c r="W120" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
       <c r="X120" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="Y120" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X120-W120)</f>
         <v>23.284700000000001</v>
       </c>
       <c r="Z120" s="75" t="e">
@@ -12986,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -12994,11 +13012,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M121" s="12">
-        <f t="shared" si="26"/>
+        <f>I121-F121</f>
         <v>2.9270833329064772E-2</v>
       </c>
       <c r="N121" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M121:$M121)</f>
         <v>42.149999993853271</v>
       </c>
       <c r="O121" s="13"/>
@@ -13006,27 +13024,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 19:23:55-0600',mode:absolute,to:'2016-05-21 20:09:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y121&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V121" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
         <v>1</v>
       </c>
       <c r="W121" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
         <v>4.82E-2</v>
       </c>
       <c r="X121" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
         <v>23.328099999999999</v>
       </c>
       <c r="Y121" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X121-W121)</f>
         <v>23.279899999999998</v>
       </c>
       <c r="Z121" s="75" t="e">
@@ -13070,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -13078,11 +13096,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M122" s="12">
-        <f t="shared" si="26"/>
+        <f>I122-F122</f>
         <v>3.4895833334303461E-2</v>
       </c>
       <c r="N122" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M122:$M122)</f>
         <v>50.250000001396984</v>
       </c>
       <c r="O122" s="13"/>
@@ -13090,27 +13108,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 20:16:28-0600',mode:absolute,to:'2016-05-21 21:10:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y122&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V122" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
         <v>1</v>
       </c>
       <c r="W122" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
         <v>23.295500000000001</v>
       </c>
       <c r="X122" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="Y122" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X122-W122)</f>
         <v>23.276399999999999</v>
       </c>
       <c r="Z122" s="75" t="e">
@@ -13154,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -13162,11 +13180,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M123" s="12">
-        <f t="shared" si="26"/>
+        <f>I123-F123</f>
         <v>2.9351851851970423E-2</v>
       </c>
       <c r="N123" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M123:$M123)</f>
         <v>42.266666666837409</v>
       </c>
       <c r="O123" s="13"/>
@@ -13174,27 +13192,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 19:51:03-0600',mode:absolute,to:'2016-05-21 20:37:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y123&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V123" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
         <v>1</v>
       </c>
       <c r="W123" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
         <v>4.82E-2</v>
       </c>
       <c r="X123" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
         <v>23.331900000000001</v>
       </c>
       <c r="Y123" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X123-W123)</f>
         <v>23.2837</v>
       </c>
       <c r="Z123" s="75" t="e">
@@ -13238,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -13246,11 +13264,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M124" s="12">
-        <f t="shared" si="26"/>
+        <f>I124-F124</f>
         <v>3.0995370369055308E-2</v>
       </c>
       <c r="N124" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M124:$M124)</f>
         <v>44.633333331439644</v>
       </c>
       <c r="O124" s="13"/>
@@ -13258,27 +13276,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 20:47:36-0600',mode:absolute,to:'2016-05-21 21:35:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y124&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V124" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
         <v>1</v>
       </c>
       <c r="W124" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
         <v>23.301300000000001</v>
       </c>
       <c r="X124" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y124" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X124-W124)</f>
         <v>23.286300000000001</v>
       </c>
       <c r="Z124" s="75" t="e">
@@ -13322,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -13330,11 +13348,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M125" s="12">
-        <f t="shared" si="26"/>
+        <f>I125-F125</f>
         <v>2.9062499997962732E-2</v>
       </c>
       <c r="N125" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M125:$M125)</f>
         <v>41.849999997066334</v>
       </c>
       <c r="O125" s="13"/>
@@ -13342,27 +13360,27 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
       <c r="T125" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 20:22:23-0600',mode:absolute,to:'2016-05-21 21:07:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y125&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V125" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
         <v>1</v>
       </c>
       <c r="W125" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X125" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y125" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X125-W125)</f>
         <v>23.282799999999998</v>
       </c>
       <c r="Z125" s="75" t="e">
@@ -13406,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -13414,11 +13432,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M126" s="12">
-        <f t="shared" si="26"/>
+        <f>I126-F126</f>
         <v>2.9907407406426501E-2</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M126:$M126)</f>
         <v>43.066666665254161</v>
       </c>
       <c r="O126" s="13"/>
@@ -13426,27 +13444,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 21:19:42-0600',mode:absolute,to:'2016-05-21 22:05:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y126&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V126" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
         <v>1</v>
       </c>
       <c r="W126" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X126" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
         <v>1.6E-2</v>
       </c>
       <c r="Y126" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X126-W126)</f>
         <v>23.281700000000001</v>
       </c>
       <c r="Z126" s="75" t="e">
@@ -13490,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L127" s="61" t="str">
@@ -13498,11 +13516,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M127" s="12">
-        <f t="shared" si="26"/>
+        <f>I127-F127</f>
         <v>3.4918981480586808E-2</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M127:$M127)</f>
         <v>50.283333332045004</v>
       </c>
       <c r="O127" s="13"/>
@@ -13510,27 +13528,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 20:44:08-0600',mode:absolute,to:'2016-05-21 21:37:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y127&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V127" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
         <v>1</v>
       </c>
       <c r="W127" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X127" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
         <v>23.332100000000001</v>
       </c>
       <c r="Y127" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X127-W127)</f>
         <v>23.287500000000001</v>
       </c>
       <c r="Z127" s="75" t="e">
@@ -13574,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L128" s="61" t="str">
@@ -13582,11 +13600,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M128" s="12">
-        <f t="shared" si="26"/>
+        <f>I128-F128</f>
         <v>3.7881944444961846E-2</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M128:$M128)</f>
         <v>54.550000000745058</v>
       </c>
       <c r="O128" s="13"/>
@@ -13594,27 +13612,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 21:43:25-0600',mode:absolute,to:'2016-05-21 22:41:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y128&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V128" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
         <v>1</v>
       </c>
       <c r="W128" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X128" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
         <v>1.6E-2</v>
       </c>
       <c r="Y128" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X128-W128)</f>
         <v>23.282900000000001</v>
       </c>
       <c r="Z128" s="75" t="e">
@@ -13658,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L129" s="61" t="str">
@@ -13666,11 +13684,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M129" s="12">
-        <f t="shared" si="26"/>
+        <f>I129-F129</f>
         <v>3.7708333336922806E-2</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M129:$M129)</f>
         <v>54.30000000516884</v>
       </c>
       <c r="O129" s="13"/>
@@ -13678,27 +13696,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 21:16:48-0600',mode:absolute,to:'2016-05-21 22:14:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y129&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V129" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
         <v>1</v>
       </c>
       <c r="W129" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X129" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
         <v>23.328099999999999</v>
       </c>
       <c r="Y129" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X129-W129)</f>
         <v>23.280100000000001</v>
       </c>
       <c r="Z129" s="75" t="e">
@@ -13742,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L130" s="61" t="str">
@@ -13750,11 +13768,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M130" s="12">
-        <f t="shared" si="26"/>
+        <f>I130-F130</f>
         <v>3.4027777779556345E-2</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M130:$M130)</f>
         <v>49.000000002561137</v>
       </c>
       <c r="O130" s="13"/>
@@ -13762,27 +13780,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 22:18:36-0600',mode:absolute,to:'2016-05-21 23:11:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y130&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V130" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
         <v>1</v>
       </c>
       <c r="W130" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
         <v>23.296399999999998</v>
       </c>
       <c r="X130" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="Y130" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X130-W130)</f>
         <v>23.276799999999998</v>
       </c>
       <c r="Z130" s="75">
@@ -13826,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13834,11 +13852,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M131" s="12">
-        <f t="shared" si="26"/>
+        <f>I131-F131</f>
         <v>3.2662037039699499E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M131:$M131)</f>
         <v>47.033333337167278</v>
       </c>
       <c r="O131" s="13"/>
@@ -13846,27 +13864,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 21:49:55-0600',mode:absolute,to:'2016-05-21 22:40:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y131&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
         <v>1</v>
       </c>
       <c r="W131" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="X131" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
         <v>23.329499999999999</v>
       </c>
       <c r="Y131" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X131-W131)</f>
         <v>23.286899999999999</v>
       </c>
       <c r="Z131" s="75">
@@ -13910,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13918,11 +13936,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M132" s="12">
-        <f t="shared" si="26"/>
+        <f>I132-F132</f>
         <v>2.9178240736655425E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M132:$M132)</f>
         <v>42.016666660783812</v>
       </c>
       <c r="O132" s="13"/>
@@ -13930,27 +13948,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 22:50:04-0600',mode:absolute,to:'2016-05-21 23:35:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y132&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>1</v>
       </c>
       <c r="W132" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X132" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y132" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X132-W132)</f>
         <v>23.282699999999998</v>
       </c>
       <c r="Z132" s="75" t="e">
@@ -13994,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -14002,11 +14020,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M133" s="12">
-        <f t="shared" si="26"/>
+        <f>I133-F133</f>
         <v>3.1122685184527654E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M133:$M133)</f>
         <v>44.816666665719822</v>
       </c>
       <c r="O133" s="13"/>
@@ -14014,27 +14032,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 22:21:47-0600',mode:absolute,to:'2016-05-21 23:09:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y133&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V133" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
         <v>1</v>
       </c>
       <c r="W133" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X133" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y133" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X133-W133)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z133" s="75">
@@ -14078,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -14086,11 +14104,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M134" s="12">
-        <f t="shared" si="26"/>
+        <f>I134-F134</f>
         <v>2.7662037042318843E-2</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M134:$M134)</f>
         <v>39.833333340939134</v>
       </c>
       <c r="O134" s="13"/>
@@ -14098,27 +14116,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 23:21:47-0600',mode:absolute,to:'2016-05-22 00:05:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y134&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V134" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
         <v>1</v>
       </c>
       <c r="W134" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="X134" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y134" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X134-W134)</f>
         <v>23.2821</v>
       </c>
       <c r="Z134" s="75" t="e">
@@ -14162,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="61" t="str">
-        <f t="shared" ref="K135:K145" si="34">IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L135" s="61" t="str">
@@ -14170,11 +14188,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M135" s="12">
-        <f t="shared" ref="M135:M145" si="35">I135-F135</f>
+        <f>I135-F135</f>
         <v>3.4016203702776693E-2</v>
       </c>
       <c r="N135" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M135:$M135)</f>
         <v>48.983333331998438</v>
       </c>
       <c r="O135" s="13"/>
@@ -14182,27 +14200,27 @@
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
       <c r="T135" s="74" t="str">
-        <f t="shared" ref="T135:T145" si="36">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 22:45:00-0600',mode:absolute,to:'2016-05-21 23:37:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="74" t="str">
-        <f t="shared" ref="U135:U145" si="37">IF(Y135&lt;23,"Y","N")</f>
+        <f>IF(Y135&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V135" s="74">
-        <f t="shared" ref="V135:V145" si="38">VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
         <v>1</v>
       </c>
       <c r="W135" s="74">
-        <f t="shared" ref="W135:W145" si="39">RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X135" s="74">
-        <f t="shared" ref="X135:X145" si="40">RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
         <v>23.331</v>
       </c>
       <c r="Y135" s="74">
-        <f t="shared" ref="Y135:Y145" si="41">ABS(X135-W135)</f>
+        <f>ABS(X135-W135)</f>
         <v>23.284299999999998</v>
       </c>
       <c r="Z135" s="75" t="e">
@@ -14246,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L136" s="61" t="str">
@@ -14254,11 +14272,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M136" s="12">
-        <f t="shared" si="35"/>
+        <f>I136-F136</f>
         <v>3.8599537037953269E-2</v>
       </c>
       <c r="N136" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M136:$M136)</f>
         <v>55.583333334652707</v>
       </c>
       <c r="O136" s="13"/>
@@ -14266,27 +14284,27 @@
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
       <c r="T136" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 23:48:44-0600',mode:absolute,to:'2016-05-22 00:48:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(Y136&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V136" s="74">
-        <f t="shared" si="38"/>
+        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
         <v>1</v>
       </c>
       <c r="W136" s="74">
-        <f t="shared" si="39"/>
+        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
       <c r="X136" s="74">
-        <f t="shared" si="40"/>
+        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y136" s="74">
-        <f t="shared" si="41"/>
+        <f>ABS(X136-W136)</f>
         <v>23.282900000000001</v>
       </c>
       <c r="Z136" s="75" t="e">
@@ -14330,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L137" s="61" t="str">
@@ -14338,7 +14356,7 @@
         <v>LEVERE</v>
       </c>
       <c r="M137" s="12">
-        <f t="shared" si="35"/>
+        <f>I137-F137</f>
         <v>1.4074074075324461E-2</v>
       </c>
       <c r="N137" s="13"/>
@@ -14354,27 +14372,27 @@
         <v>599</v>
       </c>
       <c r="T137" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 23:18:31-0600',mode:absolute,to:'2016-05-21 23:42:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(Y137&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V137" s="74">
-        <f t="shared" si="38"/>
+        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
         <v>1</v>
       </c>
       <c r="W137" s="74">
-        <f t="shared" si="39"/>
+        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
         <v>5.28E-2</v>
       </c>
       <c r="X137" s="74">
-        <f t="shared" si="40"/>
+        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
         <v>4.0091999999999999</v>
       </c>
       <c r="Y137" s="74">
-        <f t="shared" si="41"/>
+        <f>ABS(X137-W137)</f>
         <v>3.9563999999999999</v>
       </c>
       <c r="Z137" s="75" t="e">
@@ -14418,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="K135:K145" si="25">IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
         <v>4025/4026</v>
       </c>
       <c r="L138" s="61" t="str">
@@ -14426,7 +14444,7 @@
         <v>LEVERE</v>
       </c>
       <c r="M138" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="M135:M145" si="26">I138-F138</f>
         <v>1.8206018517958E-2</v>
       </c>
       <c r="N138" s="13"/>
@@ -14435,27 +14453,27 @@
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
       <c r="T138" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="T135:T145" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 23:50:02-0600',mode:absolute,to:'2016-05-22 00:19:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="U135:U145" si="28">IF(Y138&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V138" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="V135:V145" si="29">VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
         <v>0</v>
       </c>
       <c r="W138" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="W135:W145" si="30">RIGHT(D138,LEN(D138)-4)/10000</f>
         <v>6.4702000000000002</v>
       </c>
       <c r="X138" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="X135:X145" si="31">RIGHT(H138,LEN(H138)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y138" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="Y135:Y145" si="32">ABS(X138-W138)</f>
         <v>16.858899999999998</v>
       </c>
       <c r="Z138" s="75" t="e">
@@ -14499,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4025/4026</v>
       </c>
       <c r="L139" s="61" t="str">
@@ -14507,11 +14525,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M139" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>3.071759259182727E-2</v>
       </c>
       <c r="N139" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="N108:N145" si="33">24*60*SUM($M139:$M139)</f>
         <v>44.233333332231268</v>
       </c>
       <c r="O139" s="13"/>
@@ -14519,27 +14537,27 @@
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
       <c r="T139" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 00:20:15-0600',mode:absolute,to:'2016-05-22 01:08:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V139" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W139" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>23.296600000000002</v>
       </c>
       <c r="X139" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>1.78E-2</v>
       </c>
       <c r="Y139" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.2788</v>
       </c>
       <c r="Z139" s="75">
@@ -14583,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4023/4024</v>
       </c>
       <c r="L140" s="61" t="str">
@@ -14591,7 +14609,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M140" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>2.7060185180744156E-2</v>
       </c>
       <c r="N140" s="13">
@@ -14603,27 +14621,27 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
       <c r="T140" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-21 23:54:45-0600',mode:absolute,to:'2016-05-22 00:37:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V140" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W140" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X140" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y140" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z140" s="75" t="e">
@@ -14667,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4023/4024</v>
       </c>
       <c r="L141" s="61" t="str">
@@ -14675,7 +14693,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M141" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>3.0057870375458151E-2</v>
       </c>
       <c r="N141" s="13">
@@ -14687,27 +14705,27 @@
       <c r="Q141" s="62"/>
       <c r="R141" s="62"/>
       <c r="T141" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 00:47:50-0600',mode:absolute,to:'2016-05-22 01:34:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V141" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W141" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X141" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y141" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.282600000000002</v>
       </c>
       <c r="Z141" s="75">
@@ -14751,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4043/4044</v>
       </c>
       <c r="L142" s="61" t="str">
@@ -14759,7 +14777,7 @@
         <v>GRASTON</v>
       </c>
       <c r="M142" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>2.9131944444088731E-2</v>
       </c>
       <c r="N142" s="13">
@@ -14771,27 +14789,27 @@
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
       <c r="T142" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 00:22:50-0600',mode:absolute,to:'2016-05-22 01:08:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V142" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W142" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X142" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y142" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z142" s="75" t="e">
@@ -14835,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4043/4044</v>
       </c>
       <c r="L143" s="61" t="str">
@@ -14843,7 +14861,7 @@
         <v>GRASTON</v>
       </c>
       <c r="M143" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>2.7662037035042886E-2</v>
       </c>
       <c r="N143" s="13">
@@ -14855,27 +14873,27 @@
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
       <c r="T143" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 01:22:54-0600',mode:absolute,to:'2016-05-22 02:05:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V143" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W143" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>23.297899999999998</v>
       </c>
       <c r="X143" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="Y143" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.280999999999999</v>
       </c>
       <c r="Z143" s="75" t="e">
@@ -14919,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4013/4014</v>
       </c>
       <c r="L144" s="61" t="str">
@@ -14927,7 +14945,7 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M144" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>2.8599537043191958E-2</v>
       </c>
       <c r="N144" s="13">
@@ -14939,27 +14957,27 @@
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
       <c r="T144" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 00:52:22-0600',mode:absolute,to:'2016-05-22 01:36:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V144" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W144" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X144" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y144" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.282</v>
       </c>
       <c r="Z144" s="75">
@@ -15003,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="61" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>4013/4014</v>
       </c>
       <c r="L145" s="61" t="str">
@@ -15011,7 +15029,7 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M145" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>3.4687500003201421E-2</v>
       </c>
       <c r="N145" s="13">
@@ -15023,27 +15041,27 @@
       <c r="Q145" s="62"/>
       <c r="R145" s="62"/>
       <c r="T145" s="74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-22 01:41:02-0600',mode:absolute,to:'2016-05-22 02:34:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>N</v>
       </c>
       <c r="V145" s="74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="W145" s="74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>23.300799999999999</v>
       </c>
       <c r="X145" s="74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y145" s="74">
-        <f t="shared" si="41"/>
+        <f t="shared" si="32"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z145" s="75" t="e">
@@ -15539,33 +15557,33 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:P146 A3:R145">
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="9" priority="36">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q146:R146">
-    <cfRule type="expression" dxfId="5" priority="77">
+    <cfRule type="expression" dxfId="8" priority="77">
       <formula>$P146&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="78">
+    <cfRule type="expression" dxfId="7" priority="78">
       <formula>$O165&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16418,7 +16436,7 @@
         <v>144</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P16" s="81" t="str">
         <f>VLOOKUP(C16,'Train Runs'!$A$3:$T$254,20,0)</f>
@@ -16879,7 +16897,7 @@
         <v>87</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P25" s="81" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$254,20,0)</f>
@@ -16932,7 +16950,7 @@
         <v>87</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P26" s="81" t="str">
         <f>VLOOKUP(C26,'Train Runs'!$A$3:$T$254,20,0)</f>
@@ -16985,7 +17003,7 @@
         <v>87</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P27" s="81" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$254,20,0)</f>
@@ -17038,7 +17056,7 @@
         <v>87</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P28" s="81" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$254,20,0)</f>
@@ -18541,12 +18559,12 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 P2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:N57">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18577,58 +18595,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>620</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -18636,15 +18654,15 @@
         <v>579</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
